--- a/数据整理/stocks/A股/创业板/300572-安车检测.xlsx
+++ b/数据整理/stocks/A股/创业板/300572-安车检测.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000972</t>
+          <t>010049</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新华万银多元策略灵活配置混合</t>
+          <t>长城成长先锋混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>48.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3427</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.55</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.09</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2271</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001899</t>
+          <t>002542</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东海中证社会发展安全产业主题指数</t>
+          <t>长城久鼎灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.16</t>
+          <t>10.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6127</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002542</t>
+          <t>519767</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长城久鼎灵活配置混合</t>
+          <t>交银施罗德科技创新灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.94</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006377</t>
+          <t>010050</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发趋势动力灵活配置混合</t>
+          <t>长城成长先锋混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>82.64</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519767</t>
+          <t>001899</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>交银施罗德科技创新灵活配置混合</t>
+          <t>东海中证社会发展安全产业主题指数</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>87.20</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.76</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010049</t>
+          <t>006377</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长城成长先锋混合A</t>
+          <t>广发趋势动力灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>43.82</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010050</t>
+          <t>000972</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长城成长先锋混合C</t>
+          <t>新华万银多元策略灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>43.82</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,26 +862,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>320022</t>
+          <t>010049</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安研究精选股票</t>
+          <t>长城成长先锋混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>26.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2698</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -790,26 +900,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005146</t>
+          <t>000977</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴银丰润灵活配置混合</t>
+          <t>长城环保主题灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>95.43</t>
+          <t>12.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7256</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -818,26 +938,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006377</t>
+          <t>002542</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发趋势动力灵活配置混合</t>
+          <t>长城久鼎灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>84.88</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3628</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -846,26 +976,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000458</t>
+          <t>320022</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>英大领先回报混合</t>
+          <t>诺安研究精选股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>10.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2136</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -874,25 +1014,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010049</t>
+          <t>010050</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长城成长先锋混合A</t>
+          <t>长城成长先锋混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>85.79</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.79</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010050</t>
+          <t>000458</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长城成长先锋混合C</t>
+          <t>英大领先回报混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>85.79</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -930,25 +1090,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000977</t>
+          <t>001899</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长城环保主题灵活配置混合</t>
+          <t>东海中证社会发展安全产业主题指数</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>86.05</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001899</t>
+          <t>006377</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东海中证社会发展安全产业主题指数</t>
+          <t>广发趋势动力灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>84.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002542</t>
+          <t>005146</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长城久鼎灵活配置混合</t>
+          <t>兴银丰润灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>87.20</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300572-安车检测.xlsx
+++ b/数据整理/stocks/A股/创业板/300572-安车检测.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003803</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003804</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300572-安车检测.xlsx
+++ b/数据整理/stocks/A股/创业板/300572-安车检测.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1676,4 +1677,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300572-安车检测.xlsx
+++ b/数据整理/stocks/A股/创业板/300572-安车检测.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1771,4 +1772,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300572-安车检测.xlsx
+++ b/数据整理/stocks/A股/创业板/300572-安车检测.xlsx
@@ -1796,12 +1796,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300572-安车检测.xlsx
+++ b/数据整理/stocks/A股/创业板/300572-安车检测.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,357 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010049</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>长城成长先锋混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>48.30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>43.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.3427</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000977</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长城环保主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.55</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2271</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002542</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长城久鼎灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.42</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.94</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6127</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519767</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>交银施罗德科技创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.76</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2211</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010050</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长城成长先锋混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>43.82</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0562</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001899</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东海中证社会发展安全产业主题指数</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006377</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发趋势动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>82.64</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0141</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000972</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>新华万银多元策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.88</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -814,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,340 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010049</t>
+          <t>001899</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长城成长先锋混合A</t>
+          <t>东海中证社会发展安全产业主题指数</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.51</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.79</t>
+          <t>92.13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2698</t>
+          <t>0.0093</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000977</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长城环保主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7256</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002542</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长城久鼎灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.20</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3628</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>320022</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺安研究精选股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.03</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2136</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010050</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长城成长先锋混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.79</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0968</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000458</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>英大领先回报混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.41</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0173</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001899</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东海中证社会发展安全产业主题指数</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006377</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发趋势动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>84.88</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005146</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>兴银丰润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>95.43</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1737,36 +1173,340 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2698</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7256</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3628</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2136</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>001899</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>东海中证社会发展安全产业主题指数</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1780,96 +1520,356 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3427</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.61</v>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2271</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.72</v>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6127</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.5</v>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>